--- a/figures/illustration.xlsx
+++ b/figures/illustration.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xy/Documents/Programming/Data_Structure/Note/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F06274-9F76-FB4F-A9E7-1A98511AC493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15008EA2-077F-BA47-A330-8F77C00E73C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A99FF1C8-3DD5-48A4-975D-474857A0E943}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{A99FF1C8-3DD5-48A4-975D-474857A0E943}"/>
   </bookViews>
   <sheets>
-    <sheet name="quick sort" sheetId="1" r:id="rId1"/>
+    <sheet name="ManachersAlgorithm" sheetId="1" r:id="rId1"/>
+    <sheet name="85MaximalRectangle" sheetId="2" r:id="rId2"/>
+    <sheet name="quick sort" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +35,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>i'</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>DP illustration, e.g., (i, j)=(8,16)</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>i+1</t>
+  </si>
+  <si>
+    <t>i+2</t>
+  </si>
+  <si>
+    <t>i+3</t>
+  </si>
+  <si>
+    <t>dp[i][j] := max len of all 1s ends with col j at row i.</t>
+  </si>
+  <si>
+    <t>dp[k][j]</t>
+  </si>
+  <si>
+    <t>i+4</t>
+  </si>
+  <si>
+    <t>ans</t>
+  </si>
+  <si>
+    <t>initial</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>nums</t>
+  </si>
+  <si>
+    <t>n-1</t>
+  </si>
+  <si>
+    <t>n-k</t>
+  </si>
+  <si>
+    <t>swap pivot</t>
   </si>
   <si>
     <t>j</t>
@@ -47,38 +136,23 @@
     <t>swap</t>
   </si>
   <si>
-    <t>swap pivot</t>
+    <t>move, until cross</t>
   </si>
   <si>
-    <t>calc pivot</t>
+    <t>initialize i, j</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>initialize i, j</t>
-  </si>
-  <si>
-    <t>move, until cross</t>
-  </si>
-  <si>
-    <t>n-1</t>
-  </si>
-  <si>
-    <t>nums</t>
-  </si>
-  <si>
-    <t>n-k</t>
-  </si>
-  <si>
-    <t>m</t>
+    <t>calc pivot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +189,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.79998168889431442"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,7 +223,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="4" tint="0.79998168889431442"/>
+      <color theme="4" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -142,15 +235,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="0.59999389629810485"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,7 +251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -175,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -199,13 +297,184 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,62 +489,141 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -298,6 +646,2491 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CE94AB-148B-4ABE-8927-394C5A90FAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2120900" y="698500"/>
+          <a:ext cx="0" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{292021B3-A727-4BF5-8A5E-1EDA6480E6DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="711200"/>
+          <a:ext cx="0" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61142193-DF49-453F-90A9-5E44B90BD7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498850" y="704850"/>
+          <a:ext cx="0" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D18913-36FC-459F-A40C-EC5C8038341F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2120900" y="1790700"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F81410F4-9CAC-4726-89CD-487332B59DD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="1797050"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDB1947-BE9B-49CC-B833-CB5FF75FFCAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3498850" y="1797050"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle: Rounded Corners 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F9C440-8F6A-4357-A8F4-AD490C289EB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1581150" y="749300"/>
+          <a:ext cx="495300" cy="165100"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 495300"/>
+            <a:gd name="connsiteY0" fmla="*/ 27517 h 165100"/>
+            <a:gd name="connsiteX1" fmla="*/ 27517 w 495300"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 165100"/>
+            <a:gd name="connsiteX2" fmla="*/ 467783 w 495300"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 165100"/>
+            <a:gd name="connsiteX3" fmla="*/ 495300 w 495300"/>
+            <a:gd name="connsiteY3" fmla="*/ 27517 h 165100"/>
+            <a:gd name="connsiteX4" fmla="*/ 495300 w 495300"/>
+            <a:gd name="connsiteY4" fmla="*/ 137583 h 165100"/>
+            <a:gd name="connsiteX5" fmla="*/ 467783 w 495300"/>
+            <a:gd name="connsiteY5" fmla="*/ 165100 h 165100"/>
+            <a:gd name="connsiteX6" fmla="*/ 27517 w 495300"/>
+            <a:gd name="connsiteY6" fmla="*/ 165100 h 165100"/>
+            <a:gd name="connsiteX7" fmla="*/ 0 w 495300"/>
+            <a:gd name="connsiteY7" fmla="*/ 137583 h 165100"/>
+            <a:gd name="connsiteX8" fmla="*/ 0 w 495300"/>
+            <a:gd name="connsiteY8" fmla="*/ 27517 h 165100"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="495300" h="165100" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="27517"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2144" y="11862"/>
+                <a:pt x="11894" y="769"/>
+                <a:pt x="27517" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="125876" y="13395"/>
+                <a:pt x="249915" y="-21499"/>
+                <a:pt x="467783" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="482621" y="2494"/>
+                <a:pt x="498519" y="13873"/>
+                <a:pt x="495300" y="27517"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="491021" y="76245"/>
+                <a:pt x="496014" y="84169"/>
+                <a:pt x="495300" y="137583"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="494202" y="149925"/>
+                <a:pt x="485863" y="165217"/>
+                <a:pt x="467783" y="165100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="338385" y="146170"/>
+                <a:pt x="187615" y="145016"/>
+                <a:pt x="27517" y="165100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11778" y="164512"/>
+                <a:pt x="-821" y="150365"/>
+                <a:pt x="0" y="137583"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-4980" y="111446"/>
+                <a:pt x="4282" y="81137"/>
+                <a:pt x="0" y="27517"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="167354686">
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <ask:type>
+                  <ask:lineSketchFreehand/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle: Rounded Corners 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D11D09E7-D964-4C09-855B-ADB3029AB981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2190750" y="755650"/>
+          <a:ext cx="495300" cy="165100"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 495300"/>
+            <a:gd name="connsiteY0" fmla="*/ 27517 h 165100"/>
+            <a:gd name="connsiteX1" fmla="*/ 27517 w 495300"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 165100"/>
+            <a:gd name="connsiteX2" fmla="*/ 467783 w 495300"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 165100"/>
+            <a:gd name="connsiteX3" fmla="*/ 495300 w 495300"/>
+            <a:gd name="connsiteY3" fmla="*/ 27517 h 165100"/>
+            <a:gd name="connsiteX4" fmla="*/ 495300 w 495300"/>
+            <a:gd name="connsiteY4" fmla="*/ 137583 h 165100"/>
+            <a:gd name="connsiteX5" fmla="*/ 467783 w 495300"/>
+            <a:gd name="connsiteY5" fmla="*/ 165100 h 165100"/>
+            <a:gd name="connsiteX6" fmla="*/ 27517 w 495300"/>
+            <a:gd name="connsiteY6" fmla="*/ 165100 h 165100"/>
+            <a:gd name="connsiteX7" fmla="*/ 0 w 495300"/>
+            <a:gd name="connsiteY7" fmla="*/ 137583 h 165100"/>
+            <a:gd name="connsiteX8" fmla="*/ 0 w 495300"/>
+            <a:gd name="connsiteY8" fmla="*/ 27517 h 165100"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="495300" h="165100" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="27517"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2144" y="11862"/>
+                <a:pt x="11894" y="769"/>
+                <a:pt x="27517" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="125876" y="13395"/>
+                <a:pt x="249915" y="-21499"/>
+                <a:pt x="467783" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="482621" y="2494"/>
+                <a:pt x="498519" y="13873"/>
+                <a:pt x="495300" y="27517"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="491021" y="76245"/>
+                <a:pt x="496014" y="84169"/>
+                <a:pt x="495300" y="137583"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="494202" y="149925"/>
+                <a:pt x="485863" y="165217"/>
+                <a:pt x="467783" y="165100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="338385" y="146170"/>
+                <a:pt x="187615" y="145016"/>
+                <a:pt x="27517" y="165100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="11778" y="164512"/>
+                <a:pt x="-821" y="150365"/>
+                <a:pt x="0" y="137583"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-4980" y="111446"/>
+                <a:pt x="4282" y="81137"/>
+                <a:pt x="0" y="27517"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="167354686">
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <ask:type>
+                  <ask:lineSketchFreehand/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF11EC44-136B-4D93-BF7B-61108518FB91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="2019300"/>
+          <a:ext cx="2286000" cy="323850"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2286000"/>
+            <a:gd name="connsiteY0" fmla="*/ 53976 h 323850"/>
+            <a:gd name="connsiteX1" fmla="*/ 53976 w 2286000"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 323850"/>
+            <a:gd name="connsiteX2" fmla="*/ 533147 w 2286000"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 323850"/>
+            <a:gd name="connsiteX3" fmla="*/ 1099439 w 2286000"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 323850"/>
+            <a:gd name="connsiteX4" fmla="*/ 1578610 w 2286000"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 323850"/>
+            <a:gd name="connsiteX5" fmla="*/ 2232024 w 2286000"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 323850"/>
+            <a:gd name="connsiteX6" fmla="*/ 2286000 w 2286000"/>
+            <a:gd name="connsiteY6" fmla="*/ 53976 h 323850"/>
+            <a:gd name="connsiteX7" fmla="*/ 2286000 w 2286000"/>
+            <a:gd name="connsiteY7" fmla="*/ 269874 h 323850"/>
+            <a:gd name="connsiteX8" fmla="*/ 2232024 w 2286000"/>
+            <a:gd name="connsiteY8" fmla="*/ 323850 h 323850"/>
+            <a:gd name="connsiteX9" fmla="*/ 1709292 w 2286000"/>
+            <a:gd name="connsiteY9" fmla="*/ 323850 h 323850"/>
+            <a:gd name="connsiteX10" fmla="*/ 1230122 w 2286000"/>
+            <a:gd name="connsiteY10" fmla="*/ 323850 h 323850"/>
+            <a:gd name="connsiteX11" fmla="*/ 729171 w 2286000"/>
+            <a:gd name="connsiteY11" fmla="*/ 323850 h 323850"/>
+            <a:gd name="connsiteX12" fmla="*/ 53976 w 2286000"/>
+            <a:gd name="connsiteY12" fmla="*/ 323850 h 323850"/>
+            <a:gd name="connsiteX13" fmla="*/ 0 w 2286000"/>
+            <a:gd name="connsiteY13" fmla="*/ 269874 h 323850"/>
+            <a:gd name="connsiteX14" fmla="*/ 0 w 2286000"/>
+            <a:gd name="connsiteY14" fmla="*/ 53976 h 323850"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2286000" h="323850" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="53976"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="6302" y="22819"/>
+                <a:pt x="20875" y="5938"/>
+                <a:pt x="53976" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="189025" y="-21237"/>
+                <a:pt x="324060" y="8941"/>
+                <a:pt x="533147" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="742234" y="-8941"/>
+                <a:pt x="835311" y="-23033"/>
+                <a:pt x="1099439" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1363567" y="23033"/>
+                <a:pt x="1470579" y="653"/>
+                <a:pt x="1578610" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1686641" y="-653"/>
+                <a:pt x="2045536" y="27322"/>
+                <a:pt x="2232024" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2260590" y="-3234"/>
+                <a:pt x="2286966" y="24205"/>
+                <a:pt x="2286000" y="53976"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2295699" y="148312"/>
+                <a:pt x="2287498" y="197466"/>
+                <a:pt x="2286000" y="269874"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2282238" y="295603"/>
+                <a:pt x="2260173" y="318968"/>
+                <a:pt x="2232024" y="323850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2081210" y="328287"/>
+                <a:pt x="1901114" y="346527"/>
+                <a:pt x="1709292" y="323850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1517470" y="301173"/>
+                <a:pt x="1368905" y="325050"/>
+                <a:pt x="1230122" y="323850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1091339" y="322651"/>
+                <a:pt x="971543" y="305828"/>
+                <a:pt x="729171" y="323850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="486799" y="341872"/>
+                <a:pt x="357004" y="325050"/>
+                <a:pt x="53976" y="323850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="27244" y="321010"/>
+                <a:pt x="851" y="295695"/>
+                <a:pt x="0" y="269874"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="8705" y="168884"/>
+                <a:pt x="7976" y="121397"/>
+                <a:pt x="0" y="53976"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="167354686">
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <ask:type>
+                  <ask:lineSketchFreehand/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle: Rounded Corners 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5078AD-75A6-43D9-A41A-D586AF3A3D2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1892300" y="1974850"/>
+          <a:ext cx="1695450" cy="425450"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1695450"/>
+            <a:gd name="connsiteY0" fmla="*/ 70910 h 425450"/>
+            <a:gd name="connsiteX1" fmla="*/ 70910 w 1695450"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 425450"/>
+            <a:gd name="connsiteX2" fmla="*/ 542178 w 1695450"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 425450"/>
+            <a:gd name="connsiteX3" fmla="*/ 1075591 w 1695450"/>
+            <a:gd name="connsiteY3" fmla="*/ 0 h 425450"/>
+            <a:gd name="connsiteX4" fmla="*/ 1624540 w 1695450"/>
+            <a:gd name="connsiteY4" fmla="*/ 0 h 425450"/>
+            <a:gd name="connsiteX5" fmla="*/ 1695450 w 1695450"/>
+            <a:gd name="connsiteY5" fmla="*/ 70910 h 425450"/>
+            <a:gd name="connsiteX6" fmla="*/ 1695450 w 1695450"/>
+            <a:gd name="connsiteY6" fmla="*/ 354540 h 425450"/>
+            <a:gd name="connsiteX7" fmla="*/ 1624540 w 1695450"/>
+            <a:gd name="connsiteY7" fmla="*/ 425450 h 425450"/>
+            <a:gd name="connsiteX8" fmla="*/ 1091127 w 1695450"/>
+            <a:gd name="connsiteY8" fmla="*/ 425450 h 425450"/>
+            <a:gd name="connsiteX9" fmla="*/ 542178 w 1695450"/>
+            <a:gd name="connsiteY9" fmla="*/ 425450 h 425450"/>
+            <a:gd name="connsiteX10" fmla="*/ 70910 w 1695450"/>
+            <a:gd name="connsiteY10" fmla="*/ 425450 h 425450"/>
+            <a:gd name="connsiteX11" fmla="*/ 0 w 1695450"/>
+            <a:gd name="connsiteY11" fmla="*/ 354540 h 425450"/>
+            <a:gd name="connsiteX12" fmla="*/ 0 w 1695450"/>
+            <a:gd name="connsiteY12" fmla="*/ 70910 h 425450"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1695450" h="425450" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="70910"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="3031" y="31099"/>
+                <a:pt x="27532" y="7606"/>
+                <a:pt x="70910" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="210250" y="-5314"/>
+                <a:pt x="372288" y="20749"/>
+                <a:pt x="542178" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="712068" y="-20749"/>
+                <a:pt x="940320" y="22673"/>
+                <a:pt x="1075591" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1210862" y="-22673"/>
+                <a:pt x="1390368" y="10140"/>
+                <a:pt x="1624540" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1664654" y="-1002"/>
+                <a:pt x="1695755" y="29794"/>
+                <a:pt x="1695450" y="70910"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1707948" y="148630"/>
+                <a:pt x="1690479" y="231725"/>
+                <a:pt x="1695450" y="354540"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1693647" y="385510"/>
+                <a:pt x="1661891" y="432727"/>
+                <a:pt x="1624540" y="425450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1396609" y="438287"/>
+                <a:pt x="1349298" y="437983"/>
+                <a:pt x="1091127" y="425450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="832956" y="412917"/>
+                <a:pt x="810334" y="424361"/>
+                <a:pt x="542178" y="425450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="274022" y="426539"/>
+                <a:pt x="172317" y="427797"/>
+                <a:pt x="70910" y="425450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="24625" y="426976"/>
+                <a:pt x="-1604" y="390443"/>
+                <a:pt x="0" y="354540"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5685" y="244763"/>
+                <a:pt x="-918" y="134199"/>
+                <a:pt x="0" y="70910"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="167354686">
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <ask:type>
+                  <ask:lineSketchFreehand/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle: Rounded Corners 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DF7C58-1168-4909-8B92-5317BB00B71B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6788150" y="495300"/>
+          <a:ext cx="742950" cy="336550"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 742950"/>
+            <a:gd name="connsiteY0" fmla="*/ 56093 h 336550"/>
+            <a:gd name="connsiteX1" fmla="*/ 56093 w 742950"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 336550"/>
+            <a:gd name="connsiteX2" fmla="*/ 686857 w 742950"/>
+            <a:gd name="connsiteY2" fmla="*/ 0 h 336550"/>
+            <a:gd name="connsiteX3" fmla="*/ 742950 w 742950"/>
+            <a:gd name="connsiteY3" fmla="*/ 56093 h 336550"/>
+            <a:gd name="connsiteX4" fmla="*/ 742950 w 742950"/>
+            <a:gd name="connsiteY4" fmla="*/ 280457 h 336550"/>
+            <a:gd name="connsiteX5" fmla="*/ 686857 w 742950"/>
+            <a:gd name="connsiteY5" fmla="*/ 336550 h 336550"/>
+            <a:gd name="connsiteX6" fmla="*/ 56093 w 742950"/>
+            <a:gd name="connsiteY6" fmla="*/ 336550 h 336550"/>
+            <a:gd name="connsiteX7" fmla="*/ 0 w 742950"/>
+            <a:gd name="connsiteY7" fmla="*/ 280457 h 336550"/>
+            <a:gd name="connsiteX8" fmla="*/ 0 w 742950"/>
+            <a:gd name="connsiteY8" fmla="*/ 56093 h 336550"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="742950" h="336550" extrusionOk="0">
+              <a:moveTo>
+                <a:pt x="0" y="56093"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="3013" y="24470"/>
+                <a:pt x="23107" y="3622"/>
+                <a:pt x="56093" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="208065" y="-30166"/>
+                <a:pt x="498622" y="-15264"/>
+                <a:pt x="686857" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="717342" y="3437"/>
+                <a:pt x="749796" y="28416"/>
+                <a:pt x="742950" y="56093"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="751541" y="146601"/>
+                <a:pt x="744104" y="196411"/>
+                <a:pt x="742950" y="280457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="740727" y="305656"/>
+                <a:pt x="723468" y="336779"/>
+                <a:pt x="686857" y="336550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="462762" y="305680"/>
+                <a:pt x="230098" y="335520"/>
+                <a:pt x="56093" y="336550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="22787" y="334026"/>
+                <a:pt x="-1219" y="307853"/>
+                <a:pt x="0" y="280457"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6777" y="171789"/>
+                <a:pt x="3431" y="109277"/>
+                <a:pt x="0" y="56093"/>
+              </a:cubicBezTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:extLst>
+            <a:ext uri="{C807C97D-BFC1-408E-A445-0C87EB9F89A2}">
+              <ask:lineSketchStyleProps xmlns:ask="http://schemas.microsoft.com/office/drawing/2018/sketchyshapes" sd="167354686">
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <ask:type>
+                  <ask:lineSketchFreehand/>
+                </ask:type>
+              </ask:lineSketchStyleProps>
+            </a:ext>
+          </a:extLst>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A20CC5-DB17-4A97-95AB-7227F877371A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="4127500"/>
+          <a:ext cx="527050" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>i'-k</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B08FEB-046C-4C17-9AEB-CB816558D344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1898650" y="3644900"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180CAEFB-3974-4212-A6A0-A07E4BB52F8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3702050" y="4152900"/>
+          <a:ext cx="527050" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>i+k</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C131BAE-63E1-406F-8B91-21CE56D00ACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3886200" y="3670300"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E552317-090E-47FB-BBCE-BCB4490B8559}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2940050" y="4146550"/>
+          <a:ext cx="527050" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>i-k</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D65C295-3329-4C39-83CF-3E281B1C8CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="3663950"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8270CA9C-D4CA-4441-8382-A6EEAC00B052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2470150" y="4121150"/>
+          <a:ext cx="527050" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>i'+k</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CD8C6F-D782-40D1-98ED-D1F53E532EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2654300" y="3638550"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09506B7D-3B87-49B4-AC7C-9502331C2886}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441450" y="3409950"/>
+          <a:ext cx="742950" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>i'-P[i']-1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5856A4F-A40B-4E9E-AA32-154F3E996279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1739900" y="3651250"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4AACE3-8B3B-49DE-817B-525666A4FC09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3683000" y="3409950"/>
+          <a:ext cx="742950" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>i+P[i']+1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEEE1C2F-F309-42C2-BF81-0A7E8A642471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4032250" y="3644900"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFAF709-DE17-4E32-86DE-97C1283EDE98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2965450" y="3670300"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4092DC4-1AC1-4397-B0FD-7A422C9BCB7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2813050" y="3663950"/>
+          <a:ext cx="0" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88366725-A745-4B58-9A1B-E4D1F3D76E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="1943100"/>
+          <a:ext cx="1422400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EEE20EC-2F43-417A-8206-60FA12E9B4C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2108200" y="1847850"/>
+          <a:ext cx="1384300" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7CB34F-583C-4BBE-9814-E7A30E6A2E0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2133600" y="1936750"/>
+          <a:ext cx="501650" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Straight Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D3BFC2-8A79-4837-B34F-9A711050C7F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="1860550"/>
+          <a:ext cx="533400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B4C3CA9-46E5-4D1E-B650-2DE246AC97E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="1943100"/>
+          <a:ext cx="387350" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5714CFD7-17B8-4C82-84D6-DDA93743F007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3505200" y="1847850"/>
+          <a:ext cx="381000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>80210</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -311,10 +3144,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A34D34C-0715-4E2C-A3D8-EA05C6459EAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52EDD36-3C66-BE4A-82D2-C8C5204F9903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -322,8 +3155,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1207168" y="5678905"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="1070810" y="922421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -368,7 +3201,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE25FCA3-2320-44F1-9062-782251637554}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97368A81-3744-3442-A466-8BC9DA1550B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -376,8 +3209,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2426368" y="5670884"/>
-          <a:ext cx="1" cy="88232"/>
+          <a:off x="2391610" y="914400"/>
+          <a:ext cx="1" cy="94248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -414,10 +3247,10 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="TextBox 19">
+        <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A917F886-265C-4F45-B9B4-E98C502843F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F4AB095-6C5E-6B4B-AE3E-595579F61698}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -425,7 +3258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9464842" y="1243263"/>
+          <a:off x="9281695" y="0"/>
           <a:ext cx="184731" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -474,10 +3307,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C5FA73C-DB52-4726-82CB-55CB81F7C548}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364EC873-3F99-564A-BE35-707EEACCD9F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -485,8 +3318,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1207168" y="5678905"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="1070810" y="1303421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -528,10 +3361,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E33FFB-8F0B-41DF-B196-BFFEDD6A2C9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0432E913-3183-1743-B54C-19ED1766B979}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,8 +3372,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2426368" y="5670884"/>
-          <a:ext cx="1" cy="88232"/>
+          <a:off x="2226510" y="1295400"/>
+          <a:ext cx="1" cy="94248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -582,10 +3415,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7B7EC7-4E7B-424F-A277-8E4FC3D0E29E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5984FAAF-30F6-B944-950D-4CD3BDF5BB30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -593,8 +3426,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1207168" y="6100010"/>
-          <a:ext cx="1" cy="100264"/>
+          <a:off x="1070810" y="1684421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -636,10 +3469,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9170A573-E138-4018-A0DD-443838573D41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{652A5EA1-F458-2B4E-8FBB-A5C760FD29F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -647,8 +3480,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2273968" y="6091989"/>
-          <a:ext cx="1" cy="88233"/>
+          <a:off x="2226510" y="1676400"/>
+          <a:ext cx="1" cy="94248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -690,10 +3523,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90576E61-74DF-4083-9103-E173F7559519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349FE56D-4283-0248-AFA1-7C48AD07EA97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -701,8 +3534,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1207168" y="6505074"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="1235910" y="2065421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -750,10 +3583,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2275FBC-75E9-454B-89BE-DFF4023B14B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C23B640A-2853-F046-A211-C281408C49F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -761,8 +3594,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2273968" y="6497053"/>
-          <a:ext cx="1" cy="88232"/>
+          <a:off x="2061410" y="2057400"/>
+          <a:ext cx="1" cy="94248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -804,10 +3637,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8876C29D-67B7-4EFD-B15A-7F00ECD686A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455F6DCB-7CDA-F746-BD8E-F7439B7719A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -815,8 +3648,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1359568" y="6866021"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="1401010" y="2065421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -864,10 +3697,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="Straight Arrow Connector 53">
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B29AEF-487B-4FD6-8F62-6F21850D72CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC228B65-C046-FF45-896C-D669823E39AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,8 +3708,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1359568" y="6866021"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="1566110" y="2065421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -918,10 +3751,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07A74AE2-8351-4071-9CFC-ECCADACDF22B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70288CC9-31C9-AE48-844A-4BDB0B1AAEC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -929,8 +3762,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2121568" y="6886074"/>
-          <a:ext cx="1" cy="88232"/>
+          <a:off x="2061410" y="2438400"/>
+          <a:ext cx="1" cy="94248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -972,10 +3805,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D60BEF-4FD8-43D9-A50D-94681817174F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23464ED-BD6C-534E-A062-2C08BB9071EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,8 +3816,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1664368" y="6894095"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="1566110" y="2446421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1026,10 +3859,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775629E1-1167-4201-9943-FFE9FD8172E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412D3CA6-B202-3F4A-9CED-8E6A5F3F57FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,8 +3870,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2121568" y="7299158"/>
-          <a:ext cx="1" cy="88232"/>
+          <a:off x="1896310" y="2819400"/>
+          <a:ext cx="1" cy="94248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1080,10 +3913,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="Straight Arrow Connector 59">
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E2719A-29AE-48CB-A50E-B8345B2F91A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F40A350-7C02-AD4C-83A5-4050A69C4EF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1091,8 +3924,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1664368" y="7307179"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="1731210" y="2827421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1140,10 +3973,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A5C8D8-C087-4C66-B83D-E790B1AB45E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068A4B69-488C-184B-8398-FB4F66ED46D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,8 +3984,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1816768" y="7728284"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="2061410" y="2827421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1194,10 +4027,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Straight Arrow Connector 66">
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF301E7-2014-4F07-88B3-D3F7FE4CDF06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B079078B-089B-AE44-97C6-4465114B9A65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,8 +4038,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2121568" y="7728284"/>
-          <a:ext cx="1" cy="100263"/>
+          <a:off x="2061410" y="3208421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1248,10 +4081,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAF4B15-CC66-4312-BF46-39871325C948}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D206FD6B-EBC7-864F-9DD7-C43C02BA887E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,8 +4092,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1322429" y="890671"/>
-          <a:ext cx="1" cy="98342"/>
+          <a:off x="3382210" y="922421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1302,10 +4135,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D5AF5F-59FA-4CC3-AC1D-7327BC6C0243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB5346F-3331-534A-82AD-C28327FA5262}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,8 +4146,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2528929" y="882650"/>
-          <a:ext cx="1" cy="86311"/>
+          <a:off x="4207710" y="914400"/>
+          <a:ext cx="1" cy="94248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1356,10 +4189,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7121B080-85EA-4B44-9114-FEB24FD014EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1642F4D-E508-9440-8B82-43281A7641AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,8 +4200,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3798929" y="890671"/>
-          <a:ext cx="1" cy="98342"/>
+          <a:off x="3382210" y="1303421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1416,10 +4249,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14ADC28D-73E0-4345-9B54-38BC60D51557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E204332-5553-3444-832E-322C1A2057AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1427,8 +4260,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4492625" y="1295400"/>
-          <a:ext cx="44492" cy="117475"/>
+          <a:off x="4147344" y="1303337"/>
+          <a:ext cx="44492" cy="125413"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1470,10 +4303,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD22215-C7CB-42E2-9FF3-68B432B5257A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBD1337C-B2ED-DB45-AF92-17072881FF1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,8 +4314,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3798929" y="1295484"/>
-          <a:ext cx="1" cy="98341"/>
+          <a:off x="3547310" y="1303421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1530,10 +4363,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09384BE0-D3F2-4BAA-B5F2-5EC2108D7993}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0B47B90-8143-574C-8355-7F721B3B9751}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,8 +4374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3798929" y="1295484"/>
-          <a:ext cx="1" cy="98341"/>
+          <a:off x="3712410" y="1303421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1590,10 +4423,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D53509-0E8F-46BC-9A2B-CFEC3D3A110D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A3AB0D-8AC5-2F4B-AB21-D6FCC3374FF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,8 +4434,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3798929" y="1295484"/>
-          <a:ext cx="1" cy="98341"/>
+          <a:off x="3877510" y="1303421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1650,10 +4483,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Straight Arrow Connector 64">
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9343FAB-13E2-4C84-A2E3-A9E73A3506A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29E83440-62E9-F74B-AE12-0521DB639C55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,8 +4494,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3798929" y="1295484"/>
-          <a:ext cx="1" cy="98341"/>
+          <a:off x="4042610" y="1303421"/>
+          <a:ext cx="1" cy="106279"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1710,10 +4543,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD9A69DE-1464-4791-A3D8-26F3BBBD3E02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87200001-AE86-3345-9B3F-17DB09D40CB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,8 +4554,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4554579" y="1300957"/>
-          <a:ext cx="76952" cy="111917"/>
+          <a:off x="4209298" y="1308894"/>
+          <a:ext cx="91239" cy="119855"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1759,10 +4592,10 @@
     <xdr:ext cx="346377" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
+        <xdr:cNvPr id="28" name="TextBox 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38701DB5-2494-47A9-8A89-535744BEB6A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDB17D2-AEC9-3F43-958A-97881A420D2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +4603,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4389438" y="1341437"/>
+          <a:off x="4029869" y="1357312"/>
           <a:ext cx="346377" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1845,10 +4678,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43F714F3-0EFF-4385-BAF3-5B75FD1E710B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF56FAB-A2B2-CE40-887A-31D7D1BDF6EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,8 +4689,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4552991" y="882650"/>
-          <a:ext cx="1" cy="86311"/>
+          <a:off x="4207710" y="1676400"/>
+          <a:ext cx="1" cy="94248"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1899,10 +4732,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
+        <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB8FC07D-21B8-5840-AA33-56197A09CB78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{835B61A8-6CF7-C444-8266-34F19BB7E58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1910,8 +4743,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="3857625"/>
-          <a:ext cx="762000" cy="293687"/>
+          <a:off x="5700712" y="3706812"/>
+          <a:ext cx="636588" cy="293687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1972,10 +4805,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A664FE-B90E-174E-8CA8-3B2242924694}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FBA1F9D-6ED3-1249-91EA-D5E6AB9D2392}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +4816,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6897688" y="3667125"/>
+          <a:off x="5857875" y="3516312"/>
           <a:ext cx="39687" cy="230188"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2310,776 +5143,1816 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1F5C5A-D723-4255-BA65-6F10F41463E9}">
-  <dimension ref="A3:BH42"/>
+  <dimension ref="A3:BO23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AI24" sqref="AI24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="1.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="1" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
-    <col min="7" max="19" width="2.1640625" style="1"/>
-    <col min="20" max="20" width="7.33203125" style="1" customWidth="1"/>
-    <col min="21" max="28" width="2.1640625" style="1"/>
-    <col min="29" max="29" width="4.33203125" style="1" customWidth="1"/>
-    <col min="30" max="33" width="2.1640625" style="1"/>
-    <col min="34" max="34" width="2.1640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="3.1640625" style="1" customWidth="1"/>
-    <col min="36" max="37" width="2.1640625" style="1"/>
-    <col min="38" max="54" width="2.83203125" style="1" customWidth="1"/>
-    <col min="55" max="16384" width="2.1640625" style="1"/>
+    <col min="1" max="1" width="5.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="2.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>B3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:AD3" si="0">C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O3" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AB3" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="1:67" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD5" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>9</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9+1</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:AD9" si="1">C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:67" s="24" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>9</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>1</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="17" spans="1:33" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+    </row>
+    <row r="18" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B77A74B-68FB-4E08-B6B6-2310FC1EA1F4}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="13" width="2.83203125" customWidth="1"/>
+    <col min="14" max="14" width="4.1640625" style="31" customWidth="1"/>
+    <col min="15" max="15" width="8.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="29">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29">
+        <v>1</v>
+      </c>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
+      <c r="F4" s="29">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35">
+        <v>1</v>
+      </c>
+      <c r="I4" s="36">
+        <v>1</v>
+      </c>
+      <c r="J4" s="36">
+        <v>1</v>
+      </c>
+      <c r="K4" s="36">
+        <v>1</v>
+      </c>
+      <c r="L4" s="36">
+        <v>1</v>
+      </c>
+      <c r="M4" s="37">
+        <v>1</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="1">
+        <v>12</v>
+      </c>
+      <c r="P4" s="1">
+        <f>MIN(P3,O4)</f>
+        <v>12</v>
+      </c>
+      <c r="Q4" s="26">
+        <f>MAX((ROW()-ROW($N$4)+1)*P4, Q3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="30">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P8" si="0">MIN(P4,O5)</f>
+        <v>9</v>
+      </c>
+      <c r="Q5" s="26">
+        <f t="shared" ref="Q5:Q7" si="1">MAX((ROW()-ROW($N$4)+1)*P5, Q4)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="30">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="1">
+        <v>11</v>
+      </c>
+      <c r="P6" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q6" s="26">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="30">
+        <v>0</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="26">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34">
+        <v>0</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="26">
+        <f>MAX((ROW()-ROW($N$4)+1)*P8, Q7)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C71CB5D-12FA-344B-B755-AD8048B26494}">
+  <dimension ref="A3:BH42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" style="43" customWidth="1"/>
+    <col min="2" max="3" width="1.5" style="43" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="43" customWidth="1"/>
+    <col min="5" max="5" width="1" style="43" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="43" customWidth="1"/>
+    <col min="7" max="19" width="2.1640625" style="43"/>
+    <col min="20" max="20" width="7.33203125" style="43" customWidth="1"/>
+    <col min="21" max="28" width="2.1640625" style="43"/>
+    <col min="29" max="29" width="4.33203125" style="43" customWidth="1"/>
+    <col min="30" max="33" width="2.1640625" style="43"/>
+    <col min="34" max="34" width="2.1640625" style="43" customWidth="1"/>
+    <col min="35" max="35" width="3.1640625" style="43" customWidth="1"/>
+    <col min="36" max="37" width="2.1640625" style="43"/>
+    <col min="38" max="54" width="2.83203125" style="43" customWidth="1"/>
+    <col min="55" max="16384" width="2.1640625" style="43"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="55">
+        <v>8</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1</v>
+      </c>
+      <c r="I3" s="43">
+        <v>4</v>
+      </c>
+      <c r="J3" s="43">
+        <v>9</v>
+      </c>
+      <c r="K3" s="55">
+        <v>6</v>
+      </c>
+      <c r="L3" s="43">
+        <v>3</v>
+      </c>
+      <c r="M3" s="43">
         <v>5</v>
       </c>
-      <c r="G3" s="7">
-        <v>8</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="N3" s="43">
+        <v>2</v>
+      </c>
+      <c r="O3" s="43">
+        <v>7</v>
+      </c>
+      <c r="P3" s="55">
+        <v>0</v>
+      </c>
+      <c r="T3" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="55">
         <v>6</v>
       </c>
-      <c r="L3" s="1">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="V3" s="43">
+        <v>6</v>
+      </c>
+      <c r="W3" s="43">
+        <v>6</v>
+      </c>
+      <c r="X3" s="55">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="43">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="43">
         <v>5</v>
       </c>
-      <c r="N3" s="1">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1">
-        <v>7</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="U3" s="7">
-        <v>6</v>
-      </c>
-      <c r="V3" s="1">
-        <v>6</v>
-      </c>
-      <c r="W3" s="1">
-        <v>6</v>
-      </c>
-      <c r="X3" s="7">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="55">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="F4" s="21"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
+      <c r="F4" s="59"/>
+      <c r="T4" s="59"/>
     </row>
-    <row r="5" spans="1:60" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+    <row r="5" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="43">
+        <v>8</v>
+      </c>
+      <c r="H5" s="43">
+        <v>1</v>
+      </c>
+      <c r="I5" s="43">
+        <v>4</v>
+      </c>
+      <c r="J5" s="43">
+        <v>9</v>
+      </c>
+      <c r="K5" s="43">
+        <v>0</v>
+      </c>
+      <c r="L5" s="43">
+        <v>3</v>
+      </c>
+      <c r="M5" s="43">
+        <v>5</v>
+      </c>
+      <c r="N5" s="43">
+        <v>2</v>
+      </c>
+      <c r="O5" s="43">
+        <v>7</v>
+      </c>
+      <c r="P5" s="43">
         <v>6</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10">
-        <v>8</v>
-      </c>
-      <c r="H5" s="10">
-        <v>1</v>
-      </c>
-      <c r="I5" s="10">
-        <v>4</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="U5" s="43">
+        <v>6</v>
+      </c>
+      <c r="V5" s="43">
+        <v>6</v>
+      </c>
+      <c r="W5" s="43">
+        <v>6</v>
+      </c>
+      <c r="X5" s="43">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="43">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="43">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="43">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43"/>
+      <c r="AT5" s="43"/>
+      <c r="AU5" s="43"/>
+      <c r="AV5" s="43"/>
+      <c r="AW5" s="43"/>
+      <c r="AX5" s="43"/>
+      <c r="AY5" s="43"/>
+      <c r="AZ5" s="43"/>
+      <c r="BA5" s="43"/>
+      <c r="BB5" s="43"/>
+      <c r="BC5" s="43"/>
+      <c r="BD5" s="43"/>
+      <c r="BE5" s="43"/>
+      <c r="BF5" s="43"/>
+      <c r="BG5" s="43"/>
+      <c r="BH5" s="43"/>
+    </row>
+    <row r="6" spans="1:60" s="4" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>3</v>
-      </c>
-      <c r="M5" s="10">
-        <v>5</v>
-      </c>
-      <c r="N5" s="10">
-        <v>2</v>
-      </c>
-      <c r="O5" s="10">
-        <v>7</v>
-      </c>
-      <c r="P5" s="10">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="U5" s="8">
-        <v>6</v>
-      </c>
-      <c r="V5" s="8">
-        <v>6</v>
-      </c>
-      <c r="W5" s="8">
-        <v>6</v>
-      </c>
-      <c r="X5" s="8">
-        <v>6</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>6</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="8">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-    </row>
-    <row r="6" spans="1:60" s="3" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
+      <c r="AJ6" s="43"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="43"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="43"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="43"/>
+      <c r="BG6" s="43"/>
+      <c r="BH6" s="43"/>
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="22" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="51">
+        <v>8</v>
+      </c>
+      <c r="H7" s="43">
+        <v>1</v>
+      </c>
+      <c r="I7" s="43">
+        <v>4</v>
+      </c>
+      <c r="J7" s="43">
+        <v>9</v>
+      </c>
+      <c r="K7" s="43">
+        <v>0</v>
+      </c>
+      <c r="L7" s="43">
+        <v>3</v>
+      </c>
+      <c r="M7" s="43">
+        <v>5</v>
+      </c>
+      <c r="N7" s="51">
         <v>2</v>
       </c>
-      <c r="G7" s="14">
-        <v>8</v>
-      </c>
-      <c r="H7" s="10">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10">
-        <v>4</v>
-      </c>
-      <c r="J7" s="10">
-        <v>9</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10">
-        <v>3</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="O7" s="43">
+        <v>7</v>
+      </c>
+      <c r="P7" s="43">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="T7" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" s="43">
+        <v>6</v>
+      </c>
+      <c r="V7" s="43">
+        <v>6</v>
+      </c>
+      <c r="W7" s="43">
+        <v>6</v>
+      </c>
+      <c r="X7" s="43">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="43">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="43">
         <v>5</v>
       </c>
-      <c r="N7" s="14">
-        <v>2</v>
-      </c>
-      <c r="O7" s="10">
-        <v>7</v>
-      </c>
-      <c r="P7" s="10">
-        <v>6</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="T7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="U7" s="8">
-        <v>6</v>
-      </c>
-      <c r="V7" s="8">
-        <v>6</v>
-      </c>
-      <c r="W7" s="8">
-        <v>6</v>
-      </c>
-      <c r="X7" s="8">
-        <v>6</v>
-      </c>
-      <c r="Y7" s="8">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="8">
+      <c r="AA7" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="11"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="8"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="47"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z8" s="46"/>
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="21" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="43">
+        <v>2</v>
+      </c>
+      <c r="H9" s="43">
+        <v>1</v>
+      </c>
+      <c r="I9" s="43">
+        <v>4</v>
+      </c>
+      <c r="J9" s="43">
+        <v>9</v>
+      </c>
+      <c r="K9" s="43">
+        <v>0</v>
+      </c>
+      <c r="L9" s="43">
         <v>3</v>
       </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
-        <v>4</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="M9" s="43">
+        <v>5</v>
+      </c>
+      <c r="N9" s="43">
+        <v>8</v>
+      </c>
+      <c r="O9" s="43">
+        <v>7</v>
+      </c>
+      <c r="P9" s="43">
+        <v>6</v>
+      </c>
+      <c r="T9" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="43">
+        <v>6</v>
+      </c>
+      <c r="V9" s="43">
+        <v>6</v>
+      </c>
+      <c r="W9" s="43">
+        <v>6</v>
+      </c>
+      <c r="X9" s="43">
+        <v>6</v>
+      </c>
+      <c r="Y9" s="43">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="43">
+        <v>6</v>
+      </c>
+      <c r="AA9" s="43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" s="24" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="10">
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
-        <v>3</v>
-      </c>
-      <c r="M9" s="10">
-        <v>5</v>
-      </c>
-      <c r="N9" s="10">
-        <v>8</v>
-      </c>
-      <c r="O9" s="10">
-        <v>7</v>
-      </c>
-      <c r="P9" s="10">
-        <v>6</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="U9" s="8">
-        <v>6</v>
-      </c>
-      <c r="V9" s="8">
-        <v>6</v>
-      </c>
-      <c r="W9" s="8">
-        <v>6</v>
-      </c>
-      <c r="X9" s="8">
-        <v>6</v>
-      </c>
-      <c r="Y9" s="8">
-        <v>6</v>
-      </c>
-      <c r="Z9" s="8">
-        <v>6</v>
-      </c>
-      <c r="AA9" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60" s="6" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="O10" s="43"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="43"/>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="43"/>
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="43"/>
+      <c r="BF10" s="43"/>
+      <c r="BG10" s="43"/>
+      <c r="BH10" s="43"/>
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="22" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="43">
         <v>2</v>
       </c>
-      <c r="G11" s="10">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="H11" s="43">
         <v>1</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="43">
         <v>4</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="51">
         <v>9</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="43">
         <v>0</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="43">
         <v>3</v>
       </c>
-      <c r="M11" s="14">
+      <c r="M11" s="51">
         <v>5</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="43">
         <v>8</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="43">
         <v>7</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="43">
         <v>6</v>
       </c>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:60" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="11"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="60"/>
+      <c r="H12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="21" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="43">
+        <v>2</v>
+      </c>
+      <c r="H13" s="43">
+        <v>1</v>
+      </c>
+      <c r="I13" s="43">
+        <v>4</v>
+      </c>
+      <c r="J13" s="43">
+        <v>5</v>
+      </c>
+      <c r="K13" s="43">
+        <v>0</v>
+      </c>
+      <c r="L13" s="43">
         <v>3</v>
       </c>
-      <c r="G13" s="10">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10">
-        <v>4</v>
-      </c>
-      <c r="J13" s="10">
-        <v>5</v>
-      </c>
-      <c r="K13" s="10">
-        <v>0</v>
-      </c>
-      <c r="L13" s="10">
-        <v>3</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="M13" s="43">
         <v>9</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="43">
         <v>8</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="43">
         <v>7</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:60" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="11"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="59"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="47"/>
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="22" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="43">
         <v>2</v>
       </c>
-      <c r="G15" s="10">
-        <v>2</v>
-      </c>
-      <c r="H15" s="10">
+      <c r="H15" s="43">
         <v>1</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="43">
         <v>4</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="43">
         <v>5</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="43">
         <v>0</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="51">
         <v>3</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="51">
         <v>9</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="43">
         <v>8</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="43">
         <v>7</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="43">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:60" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="12"/>
-      <c r="K16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="11"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="60"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="K16" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="6:38" x14ac:dyDescent="0.2">
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="43">
+        <v>2</v>
+      </c>
+      <c r="H17" s="43">
+        <v>1</v>
+      </c>
+      <c r="I17" s="43">
         <v>4</v>
       </c>
-      <c r="G17" s="10">
-        <v>2</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
-        <v>4</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="J17" s="43">
         <v>5</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="43">
         <v>0</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="43">
         <v>3</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="43">
         <v>6</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="43">
         <v>8</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="43">
         <v>7</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="43">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="6:38" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="21"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9" t="s">
+      <c r="F18" s="59"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD18" s="43">
         <v>0</v>
       </c>
-      <c r="AD18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL18" s="1" t="s">
-        <v>9</v>
+      <c r="AI18" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL18" s="43" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="6:38" x14ac:dyDescent="0.2">
-      <c r="AC19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
+      <c r="AC19" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
     </row>
     <row r="20" spans="6:38" x14ac:dyDescent="0.2">
-      <c r="AF20" s="1" t="s">
-        <v>12</v>
+      <c r="AF20" s="43" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="6:38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3094,18 +6967,18 @@
     <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/figures/illustration.xlsx
+++ b/figures/illustration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xy/Documents/Programming/Data_Structure/Note/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15008EA2-077F-BA47-A330-8F77C00E73C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B1CC64-7AFB-3842-B20C-52A09F3DD94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{A99FF1C8-3DD5-48A4-975D-474857A0E943}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{A99FF1C8-3DD5-48A4-975D-474857A0E943}"/>
   </bookViews>
   <sheets>
     <sheet name="ManachersAlgorithm" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="32">
   <si>
     <t>index</t>
   </si>
@@ -79,31 +79,7 @@
     <t>R</t>
   </si>
   <si>
-    <t>DP illustration, e.g., (i, j)=(8,16)</t>
-  </si>
-  <si>
     <t>len</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>i+1</t>
-  </si>
-  <si>
-    <t>i+2</t>
-  </si>
-  <si>
-    <t>i+3</t>
-  </si>
-  <si>
-    <t>dp[i][j] := max len of all 1s ends with col j at row i.</t>
-  </si>
-  <si>
-    <t>dp[k][j]</t>
-  </si>
-  <si>
-    <t>i+4</t>
   </si>
   <si>
     <t>ans</t>
@@ -146,6 +122,15 @@
   </si>
   <si>
     <t>calc pivot</t>
+  </si>
+  <si>
+    <t>white block - 0, green block - 1</t>
+  </si>
+  <si>
+    <t>dp[i][11]</t>
+  </si>
+  <si>
+    <t>dp[i][j]:=max length of all 1 sequence ends with col j, at the i-th row.</t>
   </si>
 </sst>
 </file>
@@ -274,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -465,11 +450,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -625,6 +623,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5145,7 +5146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1F5C5A-D723-4255-BA65-6F10F41463E9}">
   <dimension ref="A3:BO23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="167" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
@@ -5898,10 +5899,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B77A74B-68FB-4E08-B6B6-2310FC1EA1F4}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="201" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5909,14 +5910,14 @@
     <col min="1" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="2.83203125" customWidth="1"/>
     <col min="14" max="14" width="4.1640625" style="31" customWidth="1"/>
-    <col min="15" max="15" width="8.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" style="26" customWidth="1"/>
+    <col min="15" max="15" width="7.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B1" s="58"/>
       <c r="C1" s="58"/>
@@ -5932,11 +5933,12 @@
       <c r="M1" s="58"/>
       <c r="N1" s="58"/>
       <c r="O1" s="58"/>
-      <c r="P1" s="27"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -5951,16 +5953,16 @@
       <c r="L2" s="57"/>
       <c r="M2" s="57"/>
       <c r="N2" s="31" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="P2" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="31" t="s">
         <v>15</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5973,24 +5975,15 @@
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
       <c r="K3" s="56" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="56"/>
-      <c r="N3" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q3" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
-      </c>
       <c r="B4" s="29">
         <v>1</v>
       </c>
@@ -6027,8 +6020,8 @@
       <c r="M4" s="37">
         <v>1</v>
       </c>
-      <c r="N4" s="32" t="s">
-        <v>9</v>
+      <c r="N4" s="32">
+        <v>0</v>
       </c>
       <c r="O4" s="1">
         <v>12</v>
@@ -6043,9 +6036,6 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
-      </c>
       <c r="B5" s="30">
         <v>0</v>
       </c>
@@ -6064,8 +6054,8 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
       <c r="M5" s="39"/>
-      <c r="N5" s="32" t="s">
-        <v>17</v>
+      <c r="N5" s="32">
+        <v>1</v>
       </c>
       <c r="O5" s="1">
         <v>9</v>
@@ -6080,9 +6070,6 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
-      </c>
       <c r="B6" s="30">
         <v>0</v>
       </c>
@@ -6097,8 +6084,8 @@
       <c r="K6" s="29"/>
       <c r="L6" s="29"/>
       <c r="M6" s="39"/>
-      <c r="N6" s="32" t="s">
-        <v>18</v>
+      <c r="N6" s="32">
+        <v>2</v>
       </c>
       <c r="O6" s="1">
         <v>11</v>
@@ -6113,9 +6100,6 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
       <c r="B7" s="30">
         <v>0</v>
       </c>
@@ -6140,8 +6124,8 @@
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
       <c r="M7" s="42"/>
-      <c r="N7" s="32" t="s">
-        <v>19</v>
+      <c r="N7" s="32">
+        <v>3</v>
       </c>
       <c r="O7" s="1">
         <v>6</v>
@@ -6151,12 +6135,14 @@
         <v>6</v>
       </c>
       <c r="Q7" s="26">
-        <f t="shared" si="1"/>
+        <f>MAX((ROW()-ROW($N$4)+1)*P7, Q6)</f>
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="30"/>
+      <c r="B8" s="61">
+        <v>0</v>
+      </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
@@ -6170,14 +6156,14 @@
       <c r="M8" s="34">
         <v>0</v>
       </c>
-      <c r="N8" s="32" t="s">
-        <v>22</v>
+      <c r="N8" s="32">
+        <v>4</v>
       </c>
       <c r="O8" s="1">
         <v>0</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="0"/>
+        <f>MIN(P7,O8)</f>
         <v>0</v>
       </c>
       <c r="Q8" s="26">
@@ -6186,8 +6172,10 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="30">
+        <v>0</v>
+      </c>
+      <c r="C9" s="63"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30">
         <v>0</v>
@@ -6200,13 +6188,59 @@
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
-      <c r="N9" s="32"/>
+      <c r="N9" s="32">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="62">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6218,7 +6252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C71CB5D-12FA-344B-B755-AD8048B26494}">
   <dimension ref="A3:BH42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
@@ -6243,7 +6277,7 @@
   <sheetData>
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="F3" s="59" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G3" s="55">
         <v>8</v>
@@ -6276,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="T3" s="59" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="U3" s="55">
         <v>6</v>
@@ -6310,10 +6344,10 @@
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G5" s="43">
         <v>8</v>
@@ -6349,7 +6383,7 @@
       <c r="R5" s="3"/>
       <c r="S5" s="43"/>
       <c r="T5" s="59" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="U5" s="43">
         <v>6</v>
@@ -6424,7 +6458,7 @@
       <c r="M6" s="47"/>
       <c r="N6" s="47"/>
       <c r="O6" s="46" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P6" s="47"/>
       <c r="Q6" s="5"/>
@@ -6439,7 +6473,7 @@
       <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
       <c r="Z6" s="46" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AA6" s="43"/>
       <c r="AB6" s="43"/>
@@ -6482,7 +6516,7 @@
       <c r="D7" s="50"/>
       <c r="E7" s="54"/>
       <c r="F7" s="60" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G7" s="51">
         <v>8</v>
@@ -6517,7 +6551,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="T7" s="60" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="U7" s="43">
         <v>6</v>
@@ -6557,7 +6591,7 @@
       <c r="L8" s="47"/>
       <c r="M8" s="47"/>
       <c r="N8" s="46" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P8" s="47"/>
       <c r="T8" s="60"/>
@@ -6584,7 +6618,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
       <c r="F9" s="59" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G9" s="43">
         <v>2</v>
@@ -6617,7 +6651,7 @@
         <v>6</v>
       </c>
       <c r="T9" s="59" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="U9" s="43">
         <v>6</v>
@@ -6658,7 +6692,7 @@
       <c r="L10" s="47"/>
       <c r="M10" s="47"/>
       <c r="N10" s="46" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="O10" s="43"/>
       <c r="P10" s="47"/>
@@ -6715,7 +6749,7 @@
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
       <c r="F11" s="60" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G11" s="43">
         <v>2</v>
@@ -6766,7 +6800,7 @@
       <c r="K12" s="47"/>
       <c r="L12" s="47"/>
       <c r="M12" s="46" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P12" s="47"/>
     </row>
@@ -6776,7 +6810,7 @@
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="59" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G13" s="43">
         <v>2</v>
@@ -6823,7 +6857,7 @@
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
       <c r="M14" s="46" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P14" s="47"/>
     </row>
@@ -6833,7 +6867,7 @@
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
       <c r="F15" s="60" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G15" s="43">
         <v>2</v>
@@ -6878,7 +6912,7 @@
         <v>9</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M16" s="46" t="s">
         <v>9</v>
@@ -6887,7 +6921,7 @@
     </row>
     <row r="17" spans="6:38" x14ac:dyDescent="0.2">
       <c r="F17" s="59" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G17" s="43">
         <v>2</v>
@@ -6930,15 +6964,15 @@
         <v>0</v>
       </c>
       <c r="AI18" s="43" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AL18" s="43" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="6:38" x14ac:dyDescent="0.2">
       <c r="AC19" s="43" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AD19" s="45"/>
       <c r="AE19" s="45"/>
@@ -6952,7 +6986,7 @@
     </row>
     <row r="20" spans="6:38" x14ac:dyDescent="0.2">
       <c r="AF20" s="43" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="6:38" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6967,11 +7001,6 @@
     <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F3:F4"/>
@@ -6979,6 +7008,11 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/figures/illustration.xlsx
+++ b/figures/illustration.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xy/Documents/Programming/Data_Structure/Note/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B1CC64-7AFB-3842-B20C-52A09F3DD94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6283F112-5A1F-2441-A86D-F2E4FE33733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="1" xr2:uid="{A99FF1C8-3DD5-48A4-975D-474857A0E943}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{A99FF1C8-3DD5-48A4-975D-474857A0E943}"/>
   </bookViews>
   <sheets>
     <sheet name="ManachersAlgorithm" sheetId="1" r:id="rId1"/>
     <sheet name="85MaximalRectangle" sheetId="2" r:id="rId2"/>
-    <sheet name="quick sort" sheetId="3" r:id="rId3"/>
+    <sheet name="790. Domino and Tromino Tiling" sheetId="4" r:id="rId3"/>
+    <sheet name="quick sort" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
   <si>
     <t>index</t>
   </si>
@@ -131,6 +132,33 @@
   </si>
   <si>
     <t>dp[i][j]:=max length of all 1 sequence ends with col j, at the i-th row.</t>
+  </si>
+  <si>
+    <t>i+1</t>
+  </si>
+  <si>
+    <t>i-1</t>
+  </si>
+  <si>
+    <t>i-2</t>
+  </si>
+  <si>
+    <t>i-3</t>
+  </si>
+  <si>
+    <t>dp[i] += dp[i-1]</t>
+  </si>
+  <si>
+    <t>dp[i] += dp[i-2]</t>
+  </si>
+  <si>
+    <t>dp[i] += 2 * dp[i-3]</t>
+  </si>
+  <si>
+    <t>i-4</t>
+  </si>
+  <si>
+    <t>dp[i] += 2 * dp[i-4]</t>
   </si>
 </sst>
 </file>
@@ -259,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -463,11 +491,390 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal style="thick">
+        <color theme="0"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="8" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,6 +1019,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -623,9 +1039,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3130,6 +3623,587 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="461152" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5AA2E3-CA2B-9A4D-9D75-F162BFFA53AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="711200" y="910165"/>
+              <a:ext cx="461152" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜖</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>[1,i-1]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF5AA2E3-CA2B-9A4D-9D75-F162BFFA53AA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="711200" y="910165"/>
+              <a:ext cx="461152" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>[1,i-1]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="461152" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CF0F89-A09D-7A47-9254-2786E2CECF02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3338582" y="906171"/>
+              <a:ext cx="461152" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜖</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>[1,i-2]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01CF0F89-A09D-7A47-9254-2786E2CECF02}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3338582" y="906171"/>
+              <a:ext cx="461152" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>[1,i-2]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137514</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42564</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="461152" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5549C5-17B5-F54E-A19F-D59714B2B932}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5747844" y="886905"/>
+              <a:ext cx="461152" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜖</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>[1,i-3]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5549C5-17B5-F54E-A19F-D59714B2B932}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5747844" y="886905"/>
+              <a:ext cx="461152" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>[1,i-3]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>137514</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42564</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="461152" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712D6793-3C70-EC43-9C0B-C0A95EB8012F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8071525" y="886905"/>
+              <a:ext cx="461152" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜖</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>[1,i-4]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{712D6793-3C70-EC43-9C0B-C0A95EB8012F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8071525" y="886905"/>
+              <a:ext cx="461152" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>[1,i-4]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -5901,7 +6975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B77A74B-68FB-4E08-B6B6-2310FC1EA1F4}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" workbookViewId="0">
+    <sheetView zoomScale="201" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
@@ -5916,42 +6990,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
     </row>
     <row r="2" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="31" t="s">
         <v>9</v>
       </c>
@@ -5974,11 +7048,11 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
       <c r="Q3" s="26">
         <v>0</v>
       </c>
@@ -6061,11 +7135,11 @@
         <v>9</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" ref="P5:P8" si="0">MIN(P4,O5)</f>
+        <f t="shared" ref="P5:P7" si="0">MIN(P4,O5)</f>
         <v>9</v>
       </c>
       <c r="Q5" s="26">
-        <f t="shared" ref="Q5:Q7" si="1">MAX((ROW()-ROW($N$4)+1)*P5, Q4)</f>
+        <f t="shared" ref="Q5:Q6" si="1">MAX((ROW()-ROW($N$4)+1)*P5, Q4)</f>
         <v>18</v>
       </c>
     </row>
@@ -6140,7 +7214,7 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="61">
+      <c r="B8" s="58">
         <v>0</v>
       </c>
       <c r="C8" s="30"/>
@@ -6175,7 +7249,7 @@
       <c r="B9" s="30">
         <v>0</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="30"/>
       <c r="E9" s="30">
         <v>0</v>
@@ -6199,7 +7273,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="62">
+      <c r="B10" s="59">
         <v>0</v>
       </c>
       <c r="C10">
@@ -6249,6 +7323,250 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F23DC8-B1FE-2E46-9516-3DB794D5002E}">
+  <dimension ref="B1:AF7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="276" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="1" customWidth="1"/>
+    <col min="13" max="13" width="1" customWidth="1"/>
+    <col min="21" max="21" width="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" s="57" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="56"/>
+      <c r="G1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="83"/>
+      <c r="V1" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="X1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC1" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="34"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="66"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="66"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="87"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="71"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="99"/>
+    </row>
+    <row r="3" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="60"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="60"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="77"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="72"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="96"/>
+      <c r="AF3" s="100"/>
+    </row>
+    <row r="4" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="57"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AF4" s="95"/>
+    </row>
+    <row r="5" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="J5" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="S5" s="94"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="92"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="71"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="103"/>
+      <c r="AF5" s="104"/>
+    </row>
+    <row r="6" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="70"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="93"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="77"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="72"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="96"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="105"/>
+    </row>
+    <row r="7" spans="2:32" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Z7" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z7:AF7"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="J5:P5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C71CB5D-12FA-344B-B755-AD8048B26494}">
   <dimension ref="A3:BH42"/>
   <sheetViews>
@@ -6276,7 +7594,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="64" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="55">
@@ -6309,7 +7627,7 @@
       <c r="P3" s="55">
         <v>0</v>
       </c>
-      <c r="T3" s="59" t="s">
+      <c r="T3" s="64" t="s">
         <v>28</v>
       </c>
       <c r="U3" s="55">
@@ -6335,8 +7653,8 @@
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="F4" s="59"/>
-      <c r="T4" s="59"/>
+      <c r="F4" s="64"/>
+      <c r="T4" s="64"/>
     </row>
     <row r="5" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43"/>
@@ -6346,7 +7664,7 @@
       <c r="E5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="64" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="43">
@@ -6382,7 +7700,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="43"/>
-      <c r="T5" s="59" t="s">
+      <c r="T5" s="64" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="43">
@@ -6446,7 +7764,7 @@
       <c r="C6" s="43"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="59"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="46" t="s">
         <v>9</v>
       </c>
@@ -6464,7 +7782,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="43"/>
-      <c r="T6" s="59"/>
+      <c r="T6" s="64"/>
       <c r="U6" s="46" t="s">
         <v>9</v>
       </c>
@@ -6515,7 +7833,7 @@
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="51">
@@ -6550,7 +7868,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="T7" s="60" t="s">
+      <c r="T7" s="65" t="s">
         <v>25</v>
       </c>
       <c r="U7" s="43">
@@ -6580,7 +7898,7 @@
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="60"/>
+      <c r="F8" s="65"/>
       <c r="G8" s="46" t="s">
         <v>9</v>
       </c>
@@ -6594,7 +7912,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="47"/>
-      <c r="T8" s="60"/>
+      <c r="T8" s="65"/>
       <c r="U8" s="53" t="s">
         <v>9</v>
       </c>
@@ -6617,7 +7935,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="64" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="43">
@@ -6650,7 +7968,7 @@
       <c r="P9" s="43">
         <v>6</v>
       </c>
-      <c r="T9" s="59" t="s">
+      <c r="T9" s="64" t="s">
         <v>21</v>
       </c>
       <c r="U9" s="43">
@@ -6681,7 +7999,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="59"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="46" t="s">
         <v>9</v>
       </c>
@@ -6699,7 +8017,7 @@
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
-      <c r="T10" s="59"/>
+      <c r="T10" s="64"/>
       <c r="U10" s="46"/>
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
@@ -6748,7 +8066,7 @@
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="43">
@@ -6787,7 +8105,7 @@
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
-      <c r="F12" s="60"/>
+      <c r="F12" s="65"/>
       <c r="H12" s="48" t="s">
         <v>9</v>
       </c>
@@ -6809,7 +8127,7 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="64" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="43">
@@ -6848,7 +8166,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="59"/>
+      <c r="F14" s="64"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
       <c r="J14" s="46" t="s">
@@ -6866,7 +8184,7 @@
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="65" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="43">
@@ -6905,7 +8223,7 @@
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="60"/>
+      <c r="F16" s="65"/>
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
       <c r="K16" s="48" t="s">
@@ -6920,7 +8238,7 @@
       <c r="P16" s="47"/>
     </row>
     <row r="17" spans="6:38" x14ac:dyDescent="0.2">
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="64" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="43">
@@ -6955,7 +8273,7 @@
       </c>
     </row>
     <row r="18" spans="6:38" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="59"/>
+      <c r="F18" s="64"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46" t="s">
         <v>9</v>
@@ -7001,6 +8319,11 @@
     <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F3:F4"/>
@@ -7008,11 +8331,6 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/figures/illustration.xlsx
+++ b/figures/illustration.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xy/Documents/Programming/Data_Structure/Note/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6283F112-5A1F-2441-A86D-F2E4FE33733F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078E6DC6-EC51-8A47-BDC0-D2BDEF79C2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="2" xr2:uid="{A99FF1C8-3DD5-48A4-975D-474857A0E943}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="15800" activeTab="3" xr2:uid="{A99FF1C8-3DD5-48A4-975D-474857A0E943}"/>
   </bookViews>
   <sheets>
     <sheet name="ManachersAlgorithm" sheetId="1" r:id="rId1"/>
     <sheet name="85MaximalRectangle" sheetId="2" r:id="rId2"/>
     <sheet name="790. Domino and Tromino Tiling" sheetId="4" r:id="rId3"/>
-    <sheet name="quick sort" sheetId="3" r:id="rId4"/>
+    <sheet name="801. Minimum Swaps To Make Sequ" sheetId="5" r:id="rId4"/>
+    <sheet name="quick sort" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'801. Minimum Swaps To Make Sequ'!$B$1:$O$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="51">
   <si>
     <t>index</t>
   </si>
@@ -160,12 +164,46 @@
   <si>
     <t>dp[i] += 2 * dp[i-4]</t>
   </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A[i-1]&lt;A[i], B[i-1]&lt;B[i].
+A[i-1]&lt;B[i], B[i-1]&lt;A[i]</t>
+  </si>
+  <si>
+    <t>A[i-1]&lt;A[i], B[i-1]&lt;B[i].
+B[i-1]&gt;A[i]</t>
+  </si>
+  <si>
+    <t>A[i-1]&gt;A[i], B[i-1]&lt;B[i].
+A[i-1]&lt;B[i], B[i-1]&lt;A[i]</t>
+  </si>
+  <si>
+    <t>case 1</t>
+  </si>
+  <si>
+    <t>case 3</t>
+  </si>
+  <si>
+    <t>case 2</t>
+  </si>
+  <si>
+    <t>case 4</t>
+  </si>
+  <si>
+    <t>A[i-1]&gt;A[i], B[i-1]&gt;B[i].
+Not exist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,8 +286,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,8 +331,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="9" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -870,11 +955,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,20 +1120,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,9 +1140,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1119,6 +1200,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3631,8 +3772,8 @@
       <xdr:rowOff>63498</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="461152" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3700,7 +3841,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -3775,8 +3916,8 @@
       <xdr:rowOff>63498</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="461152" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3844,7 +3985,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -3919,8 +4060,8 @@
       <xdr:rowOff>42564</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="461152" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -3988,7 +4129,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -4063,8 +4204,8 @@
       <xdr:rowOff>42564</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="461152" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -4132,7 +4273,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -6990,42 +7131,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
     </row>
     <row r="2" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
       <c r="N2" s="31" t="s">
         <v>9</v>
       </c>
@@ -7048,11 +7189,11 @@
       <c r="H3" s="27"/>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="61" t="s">
+      <c r="K3" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
       <c r="Q3" s="26">
         <v>0</v>
       </c>
@@ -7326,7 +7467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F23DC8-B1FE-2E46-9516-3DB794D5002E}">
   <dimension ref="B1:AF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="182" zoomScaleNormal="276" workbookViewId="0">
+    <sheetView zoomScale="182" zoomScaleNormal="276" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -7338,56 +7479,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" s="57" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="68"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="64" t="s">
         <v>33</v>
       </c>
       <c r="F1" s="56"/>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="63" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68" t="s">
+      <c r="J1" s="64"/>
+      <c r="K1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="64" t="s">
         <v>34</v>
       </c>
       <c r="M1" s="56"/>
       <c r="N1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="63" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="83"/>
+      <c r="U1" s="78"/>
       <c r="V1" s="56" t="s">
         <v>34</v>
       </c>
       <c r="W1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="X1" s="67" t="s">
+      <c r="X1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68" t="s">
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64" t="s">
         <v>39</v>
       </c>
       <c r="AC1" s="57" t="s">
@@ -7399,155 +7540,155 @@
       <c r="AE1" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="67" t="s">
+      <c r="AF1" s="63" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="34"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="66"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="62"/>
       <c r="J2" s="34"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="66"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="62"/>
       <c r="S2" s="34"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="87"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="82"/>
       <c r="Z2" s="34"/>
-      <c r="AA2" s="71"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="99"/>
+      <c r="AA2" s="67"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="74"/>
+      <c r="AE2" s="79"/>
+      <c r="AF2" s="94"/>
     </row>
     <row r="3" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="77"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="60"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="77"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="60"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="86"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="77"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="72"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="100"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="72"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="68"/>
+      <c r="AC3" s="93"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="95"/>
     </row>
     <row r="4" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
       <c r="H4" s="57"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
       <c r="O4" s="57"/>
       <c r="P4" s="57"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
       <c r="X4" s="57"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AF4" s="95"/>
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AF4" s="90"/>
     </row>
     <row r="5" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="J5" s="63" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="J5" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="S5" s="94"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="92"/>
-      <c r="Z5" s="94"/>
-      <c r="AA5" s="71"/>
-      <c r="AC5" s="101"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="103"/>
-      <c r="AF5" s="104"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="S5" s="89"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="87"/>
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="67"/>
+      <c r="AC5" s="96"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="99"/>
     </row>
     <row r="6" spans="2:32" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S6" s="70"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="77"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="72"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="96"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="105"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="72"/>
+      <c r="Z6" s="66"/>
+      <c r="AA6" s="68"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="91"/>
+      <c r="AE6" s="97"/>
+      <c r="AF6" s="100"/>
     </row>
     <row r="7" spans="2:32" ht="25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="S7" s="63" t="s">
+      <c r="S7" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="63"/>
-      <c r="W7" s="63"/>
-      <c r="X7" s="63"/>
-      <c r="Z7" s="63" t="s">
+      <c r="T7" s="103"/>
+      <c r="U7" s="103"/>
+      <c r="V7" s="103"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="103"/>
+      <c r="Z7" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="63"/>
-      <c r="AB7" s="63"/>
-      <c r="AC7" s="63"/>
-      <c r="AD7" s="63"/>
-      <c r="AE7" s="63"/>
-      <c r="AF7" s="63"/>
+      <c r="AA7" s="103"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="103"/>
+      <c r="AD7" s="103"/>
+      <c r="AE7" s="103"/>
+      <c r="AF7" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -7567,6 +7708,198 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B6A7E9-B596-6B4D-92D5-DD5EAAB8B342}">
+  <dimension ref="B1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" style="61" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="61" customWidth="1"/>
+    <col min="3" max="9" width="4.1640625" style="61"/>
+    <col min="10" max="10" width="5.5" style="61" customWidth="1"/>
+    <col min="11" max="16384" width="4.1640625" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="J1" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+    </row>
+    <row r="2" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="107">
+        <v>1</v>
+      </c>
+      <c r="D3" s="107">
+        <v>2</v>
+      </c>
+      <c r="E3" s="107">
+        <v>5</v>
+      </c>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="J3" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="107">
+        <v>1</v>
+      </c>
+      <c r="L3" s="107">
+        <v>2</v>
+      </c>
+      <c r="M3" s="107">
+        <v>5</v>
+      </c>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+    </row>
+    <row r="4" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="109">
+        <v>1</v>
+      </c>
+      <c r="D4" s="109">
+        <v>3</v>
+      </c>
+      <c r="E4" s="109">
+        <v>6</v>
+      </c>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="J4" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="109">
+        <v>1</v>
+      </c>
+      <c r="L4" s="109">
+        <v>7</v>
+      </c>
+      <c r="M4" s="109">
+        <v>8</v>
+      </c>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+    </row>
+    <row r="6" spans="2:15" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="119"/>
+      <c r="J6" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="111" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+    </row>
+    <row r="7" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+    </row>
+    <row r="8" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="113">
+        <v>1</v>
+      </c>
+      <c r="D8" s="114">
+        <v>7</v>
+      </c>
+      <c r="E8" s="114">
+        <v>5</v>
+      </c>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+    </row>
+    <row r="9" spans="2:15" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="112" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="116">
+        <v>1</v>
+      </c>
+      <c r="D9" s="117">
+        <v>3</v>
+      </c>
+      <c r="E9" s="117">
+        <v>8</v>
+      </c>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+    </row>
+    <row r="11" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="K6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C71CB5D-12FA-344B-B755-AD8048B26494}">
   <dimension ref="A3:BH42"/>
   <sheetViews>
@@ -7594,7 +7927,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="105" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="55">
@@ -7627,7 +7960,7 @@
       <c r="P3" s="55">
         <v>0</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="T3" s="105" t="s">
         <v>28</v>
       </c>
       <c r="U3" s="55">
@@ -7653,8 +7986,8 @@
       </c>
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
-      <c r="F4" s="64"/>
-      <c r="T4" s="64"/>
+      <c r="F4" s="105"/>
+      <c r="T4" s="105"/>
     </row>
     <row r="5" spans="1:60" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43"/>
@@ -7664,7 +7997,7 @@
       <c r="E5" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="105" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="43">
@@ -7700,7 +8033,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="43"/>
-      <c r="T5" s="64" t="s">
+      <c r="T5" s="105" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="43">
@@ -7764,7 +8097,7 @@
       <c r="C6" s="43"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="64"/>
+      <c r="F6" s="105"/>
       <c r="G6" s="46" t="s">
         <v>9</v>
       </c>
@@ -7782,7 +8115,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="43"/>
-      <c r="T6" s="64"/>
+      <c r="T6" s="105"/>
       <c r="U6" s="46" t="s">
         <v>9</v>
       </c>
@@ -7833,7 +8166,7 @@
       <c r="C7" s="50"/>
       <c r="D7" s="50"/>
       <c r="E7" s="54"/>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="106" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="51">
@@ -7868,7 +8201,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="T7" s="65" t="s">
+      <c r="T7" s="106" t="s">
         <v>25</v>
       </c>
       <c r="U7" s="43">
@@ -7898,7 +8231,7 @@
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="54"/>
-      <c r="F8" s="65"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="46" t="s">
         <v>9</v>
       </c>
@@ -7912,7 +8245,7 @@
         <v>22</v>
       </c>
       <c r="P8" s="47"/>
-      <c r="T8" s="65"/>
+      <c r="T8" s="106"/>
       <c r="U8" s="53" t="s">
         <v>9</v>
       </c>
@@ -7935,7 +8268,7 @@
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="105" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="43">
@@ -7968,7 +8301,7 @@
       <c r="P9" s="43">
         <v>6</v>
       </c>
-      <c r="T9" s="64" t="s">
+      <c r="T9" s="105" t="s">
         <v>21</v>
       </c>
       <c r="U9" s="43">
@@ -7999,7 +8332,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
-      <c r="F10" s="64"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="46" t="s">
         <v>9</v>
       </c>
@@ -8017,7 +8350,7 @@
       <c r="Q10" s="43"/>
       <c r="R10" s="43"/>
       <c r="S10" s="43"/>
-      <c r="T10" s="64"/>
+      <c r="T10" s="105"/>
       <c r="U10" s="46"/>
       <c r="V10" s="43"/>
       <c r="W10" s="43"/>
@@ -8066,7 +8399,7 @@
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
       <c r="E11" s="50"/>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="106" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="43">
@@ -8105,7 +8438,7 @@
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
       <c r="E12" s="50"/>
-      <c r="F12" s="65"/>
+      <c r="F12" s="106"/>
       <c r="H12" s="48" t="s">
         <v>9</v>
       </c>
@@ -8127,7 +8460,7 @@
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="105" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="43">
@@ -8166,7 +8499,7 @@
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
-      <c r="F14" s="64"/>
+      <c r="F14" s="105"/>
       <c r="H14" s="48"/>
       <c r="I14" s="49"/>
       <c r="J14" s="46" t="s">
@@ -8184,7 +8517,7 @@
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="106" t="s">
         <v>23</v>
       </c>
       <c r="G15" s="43">
@@ -8223,7 +8556,7 @@
       <c r="C16" s="50"/>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="65"/>
+      <c r="F16" s="106"/>
       <c r="H16" s="48"/>
       <c r="I16" s="49"/>
       <c r="K16" s="48" t="s">
@@ -8238,7 +8571,7 @@
       <c r="P16" s="47"/>
     </row>
     <row r="17" spans="6:38" x14ac:dyDescent="0.2">
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="105" t="s">
         <v>21</v>
       </c>
       <c r="G17" s="43">
@@ -8273,7 +8606,7 @@
       </c>
     </row>
     <row r="18" spans="6:38" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="64"/>
+      <c r="F18" s="105"/>
       <c r="L18" s="46"/>
       <c r="M18" s="46" t="s">
         <v>9</v>
@@ -8319,11 +8652,6 @@
     <row r="42" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="T9:T10"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="F3:F4"/>
@@ -8331,6 +8659,11 @@
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F15:F16"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="F13:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
